--- a/policy.xlsx
+++ b/policy.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>字段</t>
   </si>
@@ -38,7 +38,7 @@
     <t>采购装箱单编号</t>
   </si>
   <si>
-    <t>CXCJ202501220l</t>
+    <t>CXCJ2025012201</t>
   </si>
   <si>
     <t>总净重(KG)</t>
@@ -747,7 +747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -757,10 +757,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1301,16 +1304,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="19.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="176.363636363636" customWidth="1"/>
+    <col min="2" max="2" width="19.3545454545455" customWidth="1"/>
+    <col min="3" max="4" width="12.8181818181818"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:2">
@@ -1325,7 +1329,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1333,7 +1337,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>3156.66</v>
       </c>
     </row>
@@ -1341,7 +1345,7 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>6339.01</v>
       </c>
     </row>
@@ -1357,7 +1361,7 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>0.05</v>
       </c>
     </row>
@@ -1365,7 +1369,7 @@
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>1.1</v>
       </c>
     </row>
@@ -1373,7 +1377,7 @@
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>0.0005</v>
       </c>
     </row>
@@ -1385,25 +1389,19 @@
         <v>0.139122692302341</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:3">
+    <row r="10" ht="16.5" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:3">
+    </row>
+    <row r="11" ht="16.5" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1411,7 +1409,7 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1419,7 +1417,7 @@
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1427,7 +1425,7 @@
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1435,12 +1433,12 @@
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B16" s="3">
@@ -1448,12 +1446,12 @@
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" ht="16.5" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
